--- a/water_cls/water_cl_by_blr.xlsx
+++ b/water_cls/water_cl_by_blr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Kari_A\Critical_Loads\new_workflow_nov_2018\data\water_input_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C05E72-16C8-48BD-A630-1100D66D18D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA95C6E-7B3A-42E3-A2EC-FDC60F0E4EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{BF3CA8B3-4559-477A-99D2-75BE5B33240D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{BF3CA8B3-4559-477A-99D2-75BE5B33240D}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>Ca</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Runoff</t>
   </si>
   <si>
-    <t>Average runoff over period 1960 to 1990</t>
-  </si>
-  <si>
     <t>Water chemistry concentration. Sulphate as SO4</t>
   </si>
   <si>
@@ -197,6 +194,12 @@
   </si>
   <si>
     <t>Unique identifier for region/catchment/site</t>
+  </si>
+  <si>
+    <t>Long-term average runoff</t>
+  </si>
+  <si>
+    <t>Cl_magic</t>
   </si>
 </sst>
 </file>
@@ -240,10 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,11 +802,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9513081C-F214-4FFD-9168-EB129EDD60F2}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -838,19 +840,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -935,11 +935,11 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -952,7 +952,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1020,7 +1020,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1096,39 +1096,36 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1139,36 +1136,36 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3.57</v>
+        <v>0.95</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1179,17 +1176,20 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
+        <v>3.57</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1198,14 +1198,11 @@
       <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
       <c r="E22">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1216,15 +1213,35 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
       <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
         <v>0.5</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1239,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584B6F65-EB29-4FD9-9024-F5CDB5F072BD}">
   <dimension ref="A1:K2470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:K2470"/>
     </sheetView>
@@ -1251,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -79507,7 +79524,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -79544,7 +79561,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -79559,10 +79576,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
